--- a/docs/ValueSet-ValueSet-units-of-gestational-age.xlsx
+++ b/docs/ValueSet-ValueSet-units-of-gestational-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-units-of-gestational-age.xlsx
+++ b/docs/ValueSet-ValueSet-units-of-gestational-age.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Units of Gestational Age Vital</t>
+    <t>Units of Gestational Age</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t xml:space="preserve">This valueset contains the set of codes for specifying the units used when recording gestational age (days, weeks.).
-Reporting to NCHS is always in units of weeks, but other users of the associated [ObservationGestationalAgeAtDelivery] profile may want to record days.
+Reporting to NCHS is always in units of weeks, but other users of the associated [ObservationGestationalAgeAtDelivery](StructureDefinition-Observation-gestational-age-at-delivery.html) profile may want to record days.
 </t>
   </si>
   <si>
